--- a/server/apps/cmdb/support-files/model_config.xlsx
+++ b/server/apps/cmdb/support-files/model_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15440" tabRatio="896" firstSheet="41" activeTab="48"/>
+    <workbookView windowHeight="16960" tabRatio="896" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="classifications" sheetId="97" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9662" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9686" uniqueCount="1122">
   <si>
     <t>模型分类ID</t>
   </si>
@@ -4563,7 +4563,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{EC93EE12-1AA3-CFB8-0BEC-37694FFF58C8}">
+    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{CB8699CC-6C94-4B3E-1A79-3A69B5A33245}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
@@ -5084,7 +5084,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -5382,31 +5382,73 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11080,7 +11122,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72115384615385" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -40765,13 +40807,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.3557692307692" customWidth="1"/>
     <col min="2" max="2" width="25.7980769230769" customWidth="1"/>
@@ -40924,6 +40966,75 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -42525,7 +42636,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A12" sqref="A12:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -43414,7 +43525,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -52572,7 +52683,7 @@
   <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
